--- a/sql/Rail360_Snowflake_Checklist.xlsx
+++ b/sql/Rail360_Snowflake_Checklist.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://celebaltech-my.sharepoint.com/personal/ajaykumar_ballani_celebaltech_com/Documents/Desktop/CPKC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpkcrail-my.sharepoint.com/personal/venkannababu_thatavarthi_cpkcr_com/Documents/Documents/cpkc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BC137A-B827-4416-ACC1-17F1CC65DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{BE313BBC-29D9-4A12-83C7-D528651ADE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58EED860-995F-496C-9146-242DAB50CE15}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16320" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Snowflake_Master_Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
+    <sheet name="Snowflake_Master_Checklist" sheetId="1" r:id="rId2"/>
+    <sheet name="Dev_Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Snowflake_Master_Checklist!$A$1:$G$231</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="824">
   <si>
     <t>Category</t>
   </si>
@@ -1352,13 +1357,1153 @@
   </si>
   <si>
     <t>Regular ops review cadence</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>D_BRONZE Database Created</t>
+  </si>
+  <si>
+    <t>as Interm we are Using IMDC to Ingest Data into Snowflake. Once Openflow setup completed, we will use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warehouses Defined </t>
+  </si>
+  <si>
+    <t>We are in discussion with Devopes team to Establish CI/CD into Snowflake</t>
+  </si>
+  <si>
+    <t>Is it Applicable for Rail-360</t>
+  </si>
+  <si>
+    <t>Yes, identified</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes, all 3 are isolated</t>
+  </si>
+  <si>
+    <t>Not yet defined. We need to check on this</t>
+  </si>
+  <si>
+    <t>Yet to define</t>
+  </si>
+  <si>
+    <t>We need to discuss. As of now most of them are small</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P220 can Justify this requirement and we completed that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need to discuss later </t>
+  </si>
+  <si>
+    <t>As of Near Realtime(around 5mins)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes(In gold layer by Analystics team)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes,P140 Document </t>
+  </si>
+  <si>
+    <t>Defined as part of project target for first 4 subdivisons in gold layer</t>
+  </si>
+  <si>
+    <t>We have Sandbox/Dev(it will be used as Dev/Acceptance)/Prod snowflake accounts setup</t>
+  </si>
+  <si>
+    <t>Need to Check on the DR</t>
+  </si>
+  <si>
+    <t>In Progress.</t>
+  </si>
+  <si>
+    <t>We need to discuss on this(Currently 1 day+7days by snowflake support ticket)</t>
+  </si>
+  <si>
+    <t>Yee separate accounts for different enviroments</t>
+  </si>
+  <si>
+    <t>Yes(AWS Private link enabled)</t>
+  </si>
+  <si>
+    <t>Need to discuss(Part of DR discussion)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Yes.We have access to create snowflake tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes SCIM Provisioning. Mapping is existed </t>
+  </si>
+  <si>
+    <t>As of no specific request for snowflake access. We are using generic request</t>
+  </si>
+  <si>
+    <t>As of now we set it as 1minute(Default)</t>
+  </si>
+  <si>
+    <t>Standard is costly and Economy is less cost. As of now it's setup as Standard. We will review and change to Economy with Approvals</t>
+  </si>
+  <si>
+    <t>Not setup yet, but we need to setup in future</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Yes(We have small and Xsmall only as of now)</t>
+  </si>
+  <si>
+    <t>IDMC/OpenFlow</t>
+  </si>
+  <si>
+    <t>In Discussion</t>
+  </si>
+  <si>
+    <t>We need to setup</t>
+  </si>
+  <si>
+    <t>AWS US West(Oregon) - AWS_US_WEST_2</t>
+  </si>
+  <si>
+    <t>Not yet configured.(Currently it's on PST) - America/Los_Angeles (default)</t>
+  </si>
+  <si>
+    <t>Currently set it up to 2days(default) - Timeout in seconds for statements: statements are automatically canceled if they run for longer; if set to zero, max value (604800) is enforced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partially Completed </t>
+  </si>
+  <si>
+    <t>Yes*</t>
+  </si>
+  <si>
+    <t>NA*</t>
+  </si>
+  <si>
+    <t>Not yet</t>
+  </si>
+  <si>
+    <t>Not Yet</t>
+  </si>
+  <si>
+    <t>Not yet this time</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ABORT_DETACHED_QUERY</t>
+  </si>
+  <si>
+    <t>SESSION</t>
+  </si>
+  <si>
+    <t>If true, Snowflake will automatically abort queries when it detects that the client has disappeared.</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>ACTIVE_PYTHON_PROFILER</t>
+  </si>
+  <si>
+    <t>Which profiler is currently active to analyze user code for Python sprocs. Possible values are "LINE" and "MEMORY".</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>AI_SQL_ERROR_HANDLING_USE_FAIL_ON_ERROR</t>
+  </si>
+  <si>
+    <t>When enabled, old fail on error behavior will be observed</t>
+  </si>
+  <si>
+    <t>AUTOCOMMIT</t>
+  </si>
+  <si>
+    <t>The autocommit property determines whether is statement should to be implicitly wrapped within a transaction or not. If autocommit is set to true, then a statement that requires a transaction is executed within a transaction implicitly. If autocommit is off then an explicit commit or rollback is required to close a transaction. The default autocommit value is true.</t>
+  </si>
+  <si>
+    <t>AUTOCOMMIT_API_SUPPORTED</t>
+  </si>
+  <si>
+    <t>Whether autocommit feature is enabled for this client. This parameter is for Snowflake use only.</t>
+  </si>
+  <si>
+    <t>BINARY_INPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>input format for binary</t>
+  </si>
+  <si>
+    <t>BINARY_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>display format for binary</t>
+  </si>
+  <si>
+    <t>CLIENT_ENABLE_CONSERVATIVE_MEMORY_USAGE</t>
+  </si>
+  <si>
+    <t>Enables conservative memory usage for JDBC</t>
+  </si>
+  <si>
+    <t>CLIENT_ENABLE_DEFAULT_OVERWRITE_IN_PUT</t>
+  </si>
+  <si>
+    <t>Set default value of overwrite option to true for put command, if overwrite option is not specified in the sql command.</t>
+  </si>
+  <si>
+    <t>CLIENT_ENABLE_LOG_INFO_STATEMENT_PARAMETERS</t>
+  </si>
+  <si>
+    <t>Enable info-level logging for Prepared Statement binding parameters</t>
+  </si>
+  <si>
+    <t>CLIENT_MEMORY_LIMIT</t>
+  </si>
+  <si>
+    <t>Limit the amount of memory used by the client in MB</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>CLIENT_METADATA_REQUEST_USE_CONNECTION_CTX</t>
+  </si>
+  <si>
+    <t>For client metadata request(getTables()), use session catalog and schema if set to true</t>
+  </si>
+  <si>
+    <t>CLIENT_METADATA_USE_SESSION_DATABASE</t>
+  </si>
+  <si>
+    <t>For client metadata request(getTables()), use session catalog but multiple schemas if set to true (in conjunction with CLIENT_METADATA_REQUEST_USE_CONNECTION_CTX</t>
+  </si>
+  <si>
+    <t>CLIENT_PREFETCH_THREADS</t>
+  </si>
+  <si>
+    <t>Customer parameter to control threads, 0=auto</t>
+  </si>
+  <si>
+    <t>CLIENT_RESULT_CHUNK_SIZE</t>
+  </si>
+  <si>
+    <t>Set the max result chunk size in MB on the client side</t>
+  </si>
+  <si>
+    <t>CLIENT_RESULT_COLUMN_CASE_INSENSITIVE</t>
+  </si>
+  <si>
+    <t>Column name search is case insensitive in clients</t>
+  </si>
+  <si>
+    <t>CLIENT_SESSION_CLONE</t>
+  </si>
+  <si>
+    <t>If true, client clones a new session from the previously used tokens for the account and user.</t>
+  </si>
+  <si>
+    <t>CLIENT_SESSION_KEEP_ALIVE</t>
+  </si>
+  <si>
+    <t>If true, client session will not expire automatically</t>
+  </si>
+  <si>
+    <t>CLIENT_SESSION_KEEP_ALIVE_HEARTBEAT_FREQUENCY</t>
+  </si>
+  <si>
+    <t>Heartbeat frequency in seconds for CLIENT_SESSION_KEEP_ALIVE.</t>
+  </si>
+  <si>
+    <t>CLIENT_TIMESTAMP_TYPE_MAPPING</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_LTZ</t>
+  </si>
+  <si>
+    <t>If a variable is bound to the TIMESTAMP data type using the bind API, determines which TIMESTAMP* type it should map to: TIMESTAMP_LTZ (default), TIMESTAMP_NTZ</t>
+  </si>
+  <si>
+    <t>CSV_TIMESTAMP_FORMAT</t>
+  </si>
+  <si>
+    <t>Display format for TIMESTAMP values in Snowsight downloaded CSV files. If empty, TIMESTAMP_LTZ_OUTPUT_FORMAT will be used for TIMESTAMP_LTZ values, TIMESTAMP_TZ_OUTPUT_FORMAT will be used for TIMESTAMP_TZ and TIMESTAMP_NTZ_OUTPUT_FORMAT for TIMESTAMP_NTZ values.</t>
+  </si>
+  <si>
+    <t>C_API_QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Format used to serialize query result to send back to C API</t>
+  </si>
+  <si>
+    <t>DATAFRAME_PROCESSOR_PKG_VERSION</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>The version of the Dataframe processor package. e.g., local means the package is built locally from a stage; latest means use the latest version imported from the Anaconda channel. 0.0.3 means the exact version from the channel.</t>
+  </si>
+  <si>
+    <t>DATE_INPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>input format for date</t>
+  </si>
+  <si>
+    <t>DATE_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>display format for date</t>
+  </si>
+  <si>
+    <t>DEFAULT_NULL_ORDERING</t>
+  </si>
+  <si>
+    <t>LAST</t>
+  </si>
+  <si>
+    <t>User-visible parameter that allows customizing null ordering:- FIRST: nulls are ordered first in ASC order and last in DESC order- LAST: nulls are ordered last in ASC order and first in ASC order</t>
+  </si>
+  <si>
+    <t>DOTNET_QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>Format used to serialize query result to send back to .NET driver</t>
+  </si>
+  <si>
+    <t>DYNAMIC_TABLES_VIEW_VERSION</t>
+  </si>
+  <si>
+    <t>INFORMATION_SCHEMA.DYNAMIC_TABLES view definition version</t>
+  </si>
+  <si>
+    <t>DYNAMIC_TABLE_GRAPH_HISTORY_VIEW_VERSION</t>
+  </si>
+  <si>
+    <t>INFORMATION_SCHEMA.DYNAMIC_TABLE_GRAPH_HISTORY view definition version</t>
+  </si>
+  <si>
+    <t>DYNAMIC_TABLE_REFRESH_HISTORY_VIEW_VERSION</t>
+  </si>
+  <si>
+    <t>INFORMATION_SCHEMA.DYNAMIC_TABLE_REFRESH_HISTORY view definition version</t>
+  </si>
+  <si>
+    <t>ENABLE_CONSOLE_OUTPUT</t>
+  </si>
+  <si>
+    <t>Enable stdout/stderr fast path logging for anonyous stored procs. This is a public parameter (similar to LOG_LEVEL).</t>
+  </si>
+  <si>
+    <t>ENABLE_GET_DDL_USE_DATA_TYPE_ALIAS</t>
+  </si>
+  <si>
+    <t>If true, GET_DDL will return data type alias instead of canonical data type when alias is available</t>
+  </si>
+  <si>
+    <t>ENABLE_PROVIDER_LISTING_PROGRAMMATIC_ACCESS_DESCRIBE_LISTING</t>
+  </si>
+  <si>
+    <t>If true, describe listing returns based on the listing programmatic access design.</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_COMPUTE_POOL</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>Enable compute pool resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_COPILOT</t>
+  </si>
+  <si>
+    <t>Enable copilot resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_DATABASE</t>
+  </si>
+  <si>
+    <t>Enable database resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_FUNCTION</t>
+  </si>
+  <si>
+    <t>Enable function resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_GRANT</t>
+  </si>
+  <si>
+    <t>Enable grant resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_ICEBERG</t>
+  </si>
+  <si>
+    <t>Enable Iceberg resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_IMAGE_REPOSITORY</t>
+  </si>
+  <si>
+    <t>Enable image repository resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_RESULT</t>
+  </si>
+  <si>
+    <t>Enable result resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_ROLE</t>
+  </si>
+  <si>
+    <t>Enable role resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_SCHEMA</t>
+  </si>
+  <si>
+    <t>Enable schema resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_SERVICE</t>
+  </si>
+  <si>
+    <t>Enable service resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_SESSION</t>
+  </si>
+  <si>
+    <t>Enable session resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_STAGE</t>
+  </si>
+  <si>
+    <t>Enable stage resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_TABLE</t>
+  </si>
+  <si>
+    <t>Enable table resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_TASK</t>
+  </si>
+  <si>
+    <t>Enable task resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_USER</t>
+  </si>
+  <si>
+    <t>Enable user resource</t>
+  </si>
+  <si>
+    <t>ENABLE_SNOW_API_FOR_WAREHOUSE</t>
+  </si>
+  <si>
+    <t>Enable warehouse resource</t>
+  </si>
+  <si>
+    <t>ENABLE_STRUCTURED_TYPES_IN_SNOWPARK_CONNECT_RESPONSE</t>
+  </si>
+  <si>
+    <t>If enabled, it will act as though ENABLE_STRUCTURED_TYPES_IN_CLIENT_RESPONSE and ENABLE_STRUCTURED_TYPES_NATIVE_ARROW_FORMAT are also enabled, bypassing the driver version check. This parameter is temporary and intended solely for use in Snowpark sessions. Note that there is no validation that the request is initiated from Snowpark when this parameter is on</t>
+  </si>
+  <si>
+    <t>ENABLE_STRUCTURED_TYPES_NATIVE_ARROW_FORMAT</t>
+  </si>
+  <si>
+    <t>If true, in the Arrow ResultSet format, a result column of a structured type would become a column of a corresponding native Arrow structured type (subject to client feature support check). Otherwise, the column would become a string Arrow column that contains JSON representation of its contents. See http://go/structured-types-arrow-resultset .</t>
+  </si>
+  <si>
+    <t>ENABLE_UNHANDLED_EXCEPTIONS_REPORTING</t>
+  </si>
+  <si>
+    <t>Enables reporting of unhandled exceptions thrown by UDFs and procedures</t>
+  </si>
+  <si>
+    <t>ENABLE_UNLOAD_PHYSICAL_TYPE_OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>Enable physical-type optimizations used in Snowflake to affect the Parquet output</t>
+  </si>
+  <si>
+    <t>ERROR_ON_NONDETERMINISTIC_MERGE</t>
+  </si>
+  <si>
+    <t>raise an error when attempting to merge-update a row that joins many rows</t>
+  </si>
+  <si>
+    <t>ERROR_ON_NONDETERMINISTIC_UPDATE</t>
+  </si>
+  <si>
+    <t>raise an error when attempting to update a row that joins many rows</t>
+  </si>
+  <si>
+    <t>GEOGRAPHY_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>GeoJSON</t>
+  </si>
+  <si>
+    <t>GEOGRAPHY display format: GeoJSON, WKT, or WKB(case-insensitive)</t>
+  </si>
+  <si>
+    <t>GEOMETRY_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>GEOMETRY display format: GeoJSON, WKT, or WKB(case-insensitive)</t>
+  </si>
+  <si>
+    <t>GO_QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>ARROW</t>
+  </si>
+  <si>
+    <t>Format used to serialize query result to send back to golang driver</t>
+  </si>
+  <si>
+    <t>HYBRID_TABLE_LOCK_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Number of seconds to wait while trying to acquire locks, before timing out and aborting the statement. A value of 0 turns off lock waiting i.e. the statement must acquire the lock immediately or abort.</t>
+  </si>
+  <si>
+    <t>INCLUDE_DT_WITH_TABLE_KIND_IN_SHOW_OBJECTS</t>
+  </si>
+  <si>
+    <t>Whether to include dynamic tables, is_dynamic column, table kind in show objects</t>
+  </si>
+  <si>
+    <t>INCLUDE_DYNAMIC_TABLES_WITH_TABLE_KIND</t>
+  </si>
+  <si>
+    <t>Whether to include dynamic tables, is_dynamic column, table kind in show commands</t>
+  </si>
+  <si>
+    <t>JDBC_FORMAT_DATE_WITH_TIMEZONE</t>
+  </si>
+  <si>
+    <t>When true, ResultSet#getDate(int columnIndex, Calendar cal) and getDate(String columnName, Calendar cal) will display the date using the Calendar's output.</t>
+  </si>
+  <si>
+    <t>JDBC_QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>Format used to serialize query result to send back to jdbc</t>
+  </si>
+  <si>
+    <t>JDBC_TREAT_DECIMAL_AS_INT</t>
+  </si>
+  <si>
+    <t>When scale is 0, whether to treat Decimal as Int in JDBC</t>
+  </si>
+  <si>
+    <t>JDBC_TREAT_TIMESTAMP_NTZ_AS_UTC</t>
+  </si>
+  <si>
+    <t>When true, Timestamp_NTZ values are always stored in UTC timezone</t>
+  </si>
+  <si>
+    <t>JDBC_USE_SESSION_TIMEZONE</t>
+  </si>
+  <si>
+    <t>When true, JDBC driver will not display timezone offset between JVM and session.</t>
+  </si>
+  <si>
+    <t>JSON_INDENT</t>
+  </si>
+  <si>
+    <t>Width of indentation in JSON output (0 for compact)</t>
+  </si>
+  <si>
+    <t>JS_TREAT_INTEGER_AS_BIGINT</t>
+  </si>
+  <si>
+    <t>If true, the nodejs client will convert all integer columns to bigint type</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>The selected language that will be used by UI, GS, Query Coordination and XP. The input languages should be in BCP-47 format. AKA. dash format.See LocaleUtil.java for the details.</t>
+  </si>
+  <si>
+    <t>LOCK_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Number of seconds to wait while trying to lock a resource, before timing out and aborting the statement. A value of 0 turns off lock waiting i.e. the statement must acquire the lock immediately or abort. If multiple resources need to be locked by the statement, the timeout applies separately to each lock attempt.</t>
+  </si>
+  <si>
+    <t>LOG_EVENT_LEVEL</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>LOG_EVENT_LEVEL to use when filtering log events</t>
+  </si>
+  <si>
+    <t>LOG_LEVEL</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>LOG_LEVEL to use when filtering events</t>
+  </si>
+  <si>
+    <t>METRIC_LEVEL</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>METRIC_LEVEL value to control whether to emit metrics to Event Table</t>
+  </si>
+  <si>
+    <t>MULTI_STATEMENT_COUNT</t>
+  </si>
+  <si>
+    <t>Number of statement included in submitted query text. This parameter is submitted by user to avoid sql injection. Value 1 means one statement, value &gt; 1 means n statement can be executed, if not equal to the value will raise the exception. Value 0 means any number of statement can be executed</t>
+  </si>
+  <si>
+    <t>NOORDER_SEQUENCE_AS_DEFAULT</t>
+  </si>
+  <si>
+    <t>Whether we make NOORDER the default option for creating new sequences</t>
+  </si>
+  <si>
+    <t>ODBC_QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>Format used to serialize query result to send back to odbc</t>
+  </si>
+  <si>
+    <t>ODBC_SCHEMA_CACHING</t>
+  </si>
+  <si>
+    <t>When true, enables schema caching in ODBC. This can speed up SQLColumns API calls.</t>
+  </si>
+  <si>
+    <t>ODBC_TREAT_DECIMAL_AS_INT</t>
+  </si>
+  <si>
+    <t>When scale is 0, whether to treat Decimal as Int in ODBC</t>
+  </si>
+  <si>
+    <t>ODBC_USE_CUSTOM_SQL_DATA_TYPES</t>
+  </si>
+  <si>
+    <t>ODBC return snowflake specific sql data types in result set metadata</t>
+  </si>
+  <si>
+    <t>PYTHON_CONNECTOR_QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>Format used to serialize query result to send back to python connector</t>
+  </si>
+  <si>
+    <t>PYTHON_CONNECTOR_USE_NANOARROW</t>
+  </si>
+  <si>
+    <t>True = Python Connector will use nanoarrow to convert data. False = client will use vendored pyarrow to convert data.Only affects Python Connector &gt;= 3.3.0</t>
+  </si>
+  <si>
+    <t>PYTHON_PROFILER_MODULES</t>
+  </si>
+  <si>
+    <t>A comma separated list of modules to profile in addition to the user code, which is always profiled</t>
+  </si>
+  <si>
+    <t>PYTHON_PROFILER_TARGET_STAGE</t>
+  </si>
+  <si>
+    <t>The fully qualified stage name where the profiler output will be saved.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_AUTO_CLEAN_UP_TEMP_TABLE_ENABLED</t>
+  </si>
+  <si>
+    <t>When True, Snowpark Python client will automatically clean up unused temp tables in the current session. When False, unused temp tables will not be cleaned up until the end of session.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_AUTO_CLEAN_UP_TEMP_TABLE_ENABLED_VERSION</t>
+  </si>
+  <si>
+    <t>The minimum Snowpark-Python version required for enabling auto clean up of unused temp tables in the current session. If it's an empty string, this improvment is disabled.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_COLLECT_TELEMETRY_AT_CRITICAL_PATH_VERSION</t>
+  </si>
+  <si>
+    <t>1.28.0</t>
+  </si>
+  <si>
+    <t>The minimum Snowpark Python version required for enabling reporting telemetry for all SnowflakePlans being executed in the client. If it's an empty string, this improvement is disabled.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_COMPILATION_STAGE_ENABLED</t>
+  </si>
+  <si>
+    <t>When True, Snowpark Python client will enable the extra compilation stage that appliesoptimizations like repeated subquery elimination, large query breakdown etc.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_DATAFRAME_JOIN_ALIAS_FIX_VERSION</t>
+  </si>
+  <si>
+    <t>The minimum Snowpark-Python version required for resovling conflicting alias. If it's an empty string, this improvment is disabled.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_ELIMINATE_NUMERIC_SQL_VALUE_CAST_ENABLED</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>True = Snowpark Python client will try to eliminate the type cast for numeric literals during query generation for binary expression and in expression. False = Snowpark Python client will always add a type cast for numeric literals for query generation.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_ENABLE_THREAD_SAFE_SESSION</t>
+  </si>
+  <si>
+    <t>When True, Snowpark Python client will use locks and thread local objects to protect updates of session object.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_GENERATE_MULTILINE_QUERIES</t>
+  </si>
+  <si>
+    <t>True = Snowpark Python client will generate multi-line SQL queries. False= Snowpark Python client will not generate multi-line SQL queries.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_LARGE_QUERY_BREAKDOWN_COMPLEXITY_LOWER_BOUND</t>
+  </si>
+  <si>
+    <t>Parameter to control the complexity score lower bound used by large query breakdown. When the plan complexity is below this complexity bound, the plan node will not be considered a valid candidate for the optimization.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_LARGE_QUERY_BREAKDOWN_COMPLEXITY_UPPER_BOUND</t>
+  </si>
+  <si>
+    <t>Parameter to control the complexity score upper bound used by large query breakdown. When the plan complexity is above this bound, the plan will be broken down util plan complexity is below is bound, or no valid nodes can be found.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_REDUCE_DESCRIBE_QUERY_ENABLED</t>
+  </si>
+  <si>
+    <t>True = Snowpark Python client will reduce unnecessary describe queries. False = Snowpark Python client will not reduce unnecessary describe queries.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_REDUCE_DESCRIBE_QUERY_VERSION</t>
+  </si>
+  <si>
+    <t>The minimum snowpark-python client version for which the reduce describe query optimization is enabled. If it's an empty string, this improvement is disabled.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_USE_CTE_OPTIMIZATION_VERSION</t>
+  </si>
+  <si>
+    <t>999.999.999</t>
+  </si>
+  <si>
+    <t>1.31.1</t>
+  </si>
+  <si>
+    <t>The minimum Snowpark-Python version required for enabling cte optimization in the current session. If it's an empty string, this improvment is disabled.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_USE_LARGE_QUERY_BREAKDOWN_OPTIMIZATION_VERSION</t>
+  </si>
+  <si>
+    <t>The minimum Snowpark-Python version required to use the large query breakdown optimization for breaking down complex snowpark dataframe queries into smaller ones for achieving higher performance. When False, do not breakdown the generated sql queries. If it's an empty string, this improvement is disabled.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_USE_LOGICAL_TYPE_FOR_CREATE_DATAFRAME</t>
+  </si>
+  <si>
+    <t>True = Snowpark Python client will use logical type by default in session.create_dataframe to infer timestamp types correctly. False = Snowpark client will fallback to the old behavior. Only affects Python Snowpark version &gt; 1.10.0</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_USE_OPTIMIZED_SQL_FEATURES_VERSION</t>
+  </si>
+  <si>
+    <t>The minimum Snowpark-Python version required for enabling optimized SQL features in the current session. If it's an empty string, this improvement is disabled.</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_USE_SCOPED_TEMP_OBJECTS</t>
+  </si>
+  <si>
+    <t>True = Python Snowpark will create job scoped temp objects. False = Snowpark will create session temp objects. Only affects Python Snowpark versions &gt; 0.9.0</t>
+  </si>
+  <si>
+    <t>PYTHON_SNOWPARK_USE_SQL_SIMPLIFIER</t>
+  </si>
+  <si>
+    <t>True = Snowpark Python client will use the SQL simplifier. False = Snowpark Python client will not use SQL simplifier.</t>
+  </si>
+  <si>
+    <t>PYTHON_UDF_PROFILER_MODULES</t>
+  </si>
+  <si>
+    <t>A comma separated list of user-imported modules to profile in addition to the handler code in Python UDF, which is always profiled.</t>
+  </si>
+  <si>
+    <t>QA_TEST_NAME</t>
+  </si>
+  <si>
+    <t>Test name if running in QA mode. Used as a diversifier for shared pools</t>
+  </si>
+  <si>
+    <t>QUERY_CLIENT_TAG</t>
+  </si>
+  <si>
+    <t>E1:377293</t>
+  </si>
+  <si>
+    <t>String (up to 2000 characters) used to tag and index queries</t>
+  </si>
+  <si>
+    <t>QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>Format used to serialize query result to send back to client</t>
+  </si>
+  <si>
+    <t>QUERY_TAG</t>
+  </si>
+  <si>
+    <t>String (up to 2000 characters) used to tag statements executed by the session</t>
+  </si>
+  <si>
+    <t>QUOTED_IDENTIFIERS_IGNORE_CASE</t>
+  </si>
+  <si>
+    <t>If true, the case of quoted identifiers is ignored</t>
+  </si>
+  <si>
+    <t>READ_LATEST_WRITES</t>
+  </si>
+  <si>
+    <t>If true, queries that read hybrid tables will always see the latest committed writes</t>
+  </si>
+  <si>
+    <t>ROWS_PER_RESULTSET</t>
+  </si>
+  <si>
+    <t>maxium number of rows in a result set</t>
+  </si>
+  <si>
+    <t>S3_STAGE_VPCE_DNS_NAME</t>
+  </si>
+  <si>
+    <t>S3 VPCE DNS name to access internal stage bucket over privatelink</t>
+  </si>
+  <si>
+    <t>SEARCH_PATH</t>
+  </si>
+  <si>
+    <t>$current, $public</t>
+  </si>
+  <si>
+    <t>Search path for unqualified object references.</t>
+  </si>
+  <si>
+    <t>SHOW_EXTERNAL_TABLE_KIND_AS_TABLE</t>
+  </si>
+  <si>
+    <t>Change the way external table KIND info is displayed by SHOW TABLES and SHOW OBJECTS. The KIND column of external tables is displayed as TABLE if true, EXTERNAL_TABLE otherwise.</t>
+  </si>
+  <si>
+    <t>SIMULATED_DATA_SHARING_CONSUMER</t>
+  </si>
+  <si>
+    <t>Data sharing views will return rows as if executed in the specified consumer account.</t>
+  </si>
+  <si>
+    <t>SNOWPARK_HIDE_INTERNAL_ALIAS</t>
+  </si>
+  <si>
+    <t>Display the original column names after automatic aliased by Snowpark client. e.g. Join two dataframes with conflicting column names.</t>
+  </si>
+  <si>
+    <t>SNOWPARK_LAZY_ANALYSIS</t>
+  </si>
+  <si>
+    <t>Enable lazy result schema analysis for Snowpark</t>
+  </si>
+  <si>
+    <t>SNOWPARK_REQUEST_TIMEOUT_IN_SECONDS</t>
+  </si>
+  <si>
+    <t>Client side timeout for Snowpark requests in seconds. Currently this parameter only applies to UDF jar (Java/Scala) or zip (Python) file uploading.</t>
+  </si>
+  <si>
+    <t>SNOWPARK_STORED_PROC_IS_FINAL_TABLE_QUERY</t>
+  </si>
+  <si>
+    <t>If true, it indicates that the query is the final query of table sproc which is used as the result for the client</t>
+  </si>
+  <si>
+    <t>SNOWPARK_USE_SCOPED_TEMP_OBJECTS</t>
+  </si>
+  <si>
+    <t>True = Snowpark will create job scoped temp objects. False = Snowpark will create session temp objects. Only affects JVM Snowpark versions &gt; 1.5.0</t>
+  </si>
+  <si>
+    <t>SQL_API_NULLABLE_IN_RESULT_SET</t>
+  </si>
+  <si>
+    <t>The result set may include JSON null if true, otherwise it includes string 'null'</t>
+  </si>
+  <si>
+    <t>SQL_API_QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>The result set will use the format provided with the default of JSON</t>
+  </si>
+  <si>
+    <t>STATEMENT_QUEUED_TIMEOUT_IN_SECONDS</t>
+  </si>
+  <si>
+    <t>Timeout in seconds for queued statements: statements will automatically be canceled if they are queued on a warehouse for longer than this amount of time; disabled if set to zero.</t>
+  </si>
+  <si>
+    <t>STATEMENT_TIMEOUT_IN_SECONDS</t>
+  </si>
+  <si>
+    <t>Timeout in seconds for statements: statements are automatically canceled if they run for longer; if set to zero, max value (604800) is enforced.</t>
+  </si>
+  <si>
+    <t>STRICT_JSON_OUTPUT</t>
+  </si>
+  <si>
+    <t>JSON output is strictly compliant to the specification</t>
+  </si>
+  <si>
+    <t>TELEMETRY_ENABLE_INTERACTIVE_MODE</t>
+  </si>
+  <si>
+    <t>If true, we ingest telemetry using rowset path into event tables.</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_DAY_IS_ALWAYS_24H</t>
+  </si>
+  <si>
+    <t>If set, arithmetic on days always uses 24 hours per day, possibly not preserving the time (due to DST changes)</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_INPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>input format for timestamp</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_LTZ_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>Display format for TIMESTAMP_LTZ values. If empty, TIMESTAMP_OUTPUT_FORMAT is used.</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_NTZ_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD HH24:MI:SS.FF3</t>
+  </si>
+  <si>
+    <t>Display format for TIMESTAMP_NTZ values. If empty, TIMESTAMP_OUTPUT_FORMAT is used.</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD HH24:MI:SS.FF3 TZHTZM</t>
+  </si>
+  <si>
+    <t>Default display format for all timestamp types.</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_TYPE_MAPPING</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_NTZ</t>
+  </si>
+  <si>
+    <t>If TIMESTAMP type is used, what specific TIMESTAMP* type it should map to: TIMESTAMP_LTZ, TIMESTAMP_NTZ (default) or TIMESTAMP_TZ</t>
+  </si>
+  <si>
+    <t>TIMESTAMP_TZ_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>Display format for TIMESTAMP_TZ values. If empty, TIMESTAMP_OUTPUT_FORMAT is used.</t>
+  </si>
+  <si>
+    <t>TIMEZONE</t>
+  </si>
+  <si>
+    <t>America/Los_Angeles</t>
+  </si>
+  <si>
+    <t>time zone</t>
+  </si>
+  <si>
+    <t>TIME_INPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>input format for time</t>
+  </si>
+  <si>
+    <t>TIME_OUTPUT_FORMAT</t>
+  </si>
+  <si>
+    <t>HH24:MI:SS</t>
+  </si>
+  <si>
+    <t>display format for time</t>
+  </si>
+  <si>
+    <t>TRACE_LEVEL</t>
+  </si>
+  <si>
+    <t>Trace level value to use when generating/filtering trace events</t>
+  </si>
+  <si>
+    <t>TRANSACTION_ABORT_ON_ERROR</t>
+  </si>
+  <si>
+    <t>If this parameter is true, and a statement issued within a non-autocommit transaction returns with an error, then the non-autocommit transaction is aborted. All statements issued inside that transaction will fail until an commit or rollback statement is executed to close that transaction.</t>
+  </si>
+  <si>
+    <t>TRANSACTION_DEFAULT_ISOLATION_LEVEL</t>
+  </si>
+  <si>
+    <t>READ COMMITTED</t>
+  </si>
+  <si>
+    <t>The default isolation level when starting a starting a transaction, when no isolation level was specified</t>
+  </si>
+  <si>
+    <t>TWO_DIGIT_CENTURY_START</t>
+  </si>
+  <si>
+    <t>For 2-digit dates, defines a century-start year. For example, when set to 1980: - parsing a string '79' will produce 2079 - parsing a string '80' will produce 1980</t>
+  </si>
+  <si>
+    <t>UI_QUERY_RESULT_FORMAT</t>
+  </si>
+  <si>
+    <t>UNLOAD_PARQUET_TIME_TIMESTAMP_MILLIS</t>
+  </si>
+  <si>
+    <t>Enable this parameter to always unload parquet time and timestamp in milliseconds scale, which are TIME_MILLIS and TIMESTAMP_MILLIS</t>
+  </si>
+  <si>
+    <t>UNSUPPORTED_DDL_ACTION</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>The action to take upon encountering an unsupported ddl statement</t>
+  </si>
+  <si>
+    <t>USE_CACHED_RESULT</t>
+  </si>
+  <si>
+    <t>If enabled, query results can be reused between successive invocations of the same query as long as the original result has not expired</t>
+  </si>
+  <si>
+    <t>WEEK_OF_YEAR_POLICY</t>
+  </si>
+  <si>
+    <t>Defines the policy of assigning weeks to years: 0: the week needs to have 4 days in a given year; 1: a week with January 1st always belongs to a given year.</t>
+  </si>
+  <si>
+    <t>WEEK_START</t>
+  </si>
+  <si>
+    <t>Defines the first day of the week: 0: legacy Snowflake behavior; 1: Monday .. 7: Sunday.</t>
+  </si>
+  <si>
+    <t>WORKSPACE_USER_SETTINGS</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Workspace user settings</t>
+  </si>
+  <si>
+    <t>LOG_EVENT_LEVEL = INFO</t>
+  </si>
+  <si>
+    <t>Currently 1 day for both Account and Database level - Need discussion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,9 +2515,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,6 +2536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,21 +2610,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1476,6 +2627,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,3057 +2953,3995 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8807CFD-4246-47E0-BB63-60EE47055C1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E231"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6328125" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
+      <c r="F7" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+      <c r="F15" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
+      <c r="F17" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
+      <c r="F20" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
+      <c r="F21" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+      <c r="F22" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="F23" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="F24" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
+      <c r="F25" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
+      <c r="F26" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
       <c r="B27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
+      <c r="F27" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
+      <c r="F28" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
+      <c r="F29" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+      <c r="F30" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="F31" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
+      <c r="F32" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
+      <c r="F33" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
+      <c r="F34" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
+      <c r="F35" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
+      <c r="F36" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
       <c r="B37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
+      <c r="F37" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
       <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
+      <c r="F38" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
+      <c r="F39" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
       <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
+      <c r="F40" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
       <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
+      <c r="F41" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
       <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
+      <c r="F42" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
       <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+      <c r="F43" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
       <c r="B44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+      <c r="F44" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
       <c r="B45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
+      <c r="F45" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
       <c r="B46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="F46" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4"/>
+      <c r="F47" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
       <c r="B48" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
+      <c r="F48" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
       <c r="B49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
+      <c r="F49" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
       <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
+      <c r="F50" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
       <c r="B51" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
+      <c r="F51" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
       <c r="B52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
+      <c r="F52" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
       <c r="B53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
+      <c r="F53" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
       <c r="B54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
+      <c r="F54" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
       <c r="B55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
+      <c r="F55" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
       <c r="B56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="F56" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
       <c r="B57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
+      <c r="F57" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
       <c r="B58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
+      <c r="F58" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
       <c r="B59" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
+      <c r="F59" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
       <c r="B60" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
+      <c r="F60" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
       <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
+      <c r="F61" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
       <c r="B62" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
+      <c r="F62" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
       <c r="B63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
+      <c r="F63" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
       <c r="B64" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
+      <c r="F64" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
       <c r="B65" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
+      <c r="F65" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
       <c r="B66" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+      <c r="F66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
+      <c r="F67" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
       <c r="B68" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
+      <c r="F68" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
       <c r="B69" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
+      <c r="F69" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
       <c r="B70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
+      <c r="F70" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
       <c r="B71" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="4"/>
+      <c r="F71" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
       <c r="B72" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="4"/>
+      <c r="F72" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
       <c r="B73" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="4"/>
+      <c r="F73" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
       <c r="B74" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="4"/>
+      <c r="F74" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
       <c r="B75" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="4"/>
+      <c r="F75" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
       <c r="B76" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="4"/>
+      <c r="F76" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
       <c r="B77" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="5" t="s">
         <v>173</v>
       </c>
       <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="4"/>
+      <c r="F77" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
       <c r="B78" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="4"/>
+      <c r="F78" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
       <c r="B79" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="4"/>
+      <c r="F79" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
       <c r="B80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="4"/>
+      <c r="F80" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
       <c r="B81" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="4"/>
+      <c r="F81" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
       <c r="B82" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="4"/>
+      <c r="F82" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
       <c r="B83" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="4"/>
+      <c r="F83" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
       <c r="B84" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="4"/>
+      <c r="F84" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
       <c r="B85" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="5" t="s">
         <v>191</v>
       </c>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
+      <c r="F85" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
       <c r="B86" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+      <c r="F86" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="4"/>
+      <c r="F87" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
       <c r="B88" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="4"/>
+      <c r="F88" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
       <c r="B89" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="4"/>
+      <c r="F89" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
       <c r="B90" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="4"/>
+      <c r="F90" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
       <c r="B91" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="4"/>
+      <c r="F91" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
       <c r="B92" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="4"/>
+      <c r="F92" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
       <c r="B93" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="4"/>
+      <c r="F93" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
       <c r="B94" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="4"/>
+      <c r="F94" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
       <c r="B95" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="4"/>
+      <c r="F95" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
       <c r="B96" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="4"/>
+      <c r="F96" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
       <c r="B97" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="4"/>
+      <c r="F97" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
       <c r="B98" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="4"/>
+      <c r="F98" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
       <c r="B99" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="4"/>
+      <c r="F99" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
       <c r="B100" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
+      <c r="F100" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
       <c r="B101" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="5" t="s">
         <v>216</v>
       </c>
       <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+      <c r="F101" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="5" t="s">
         <v>220</v>
       </c>
       <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="4"/>
+      <c r="F102" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
       <c r="B103" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="4"/>
+      <c r="F103" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
       <c r="B104" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="4"/>
+      <c r="F104" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
       <c r="B105" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="4"/>
+      <c r="F105" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
       <c r="B106" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="4"/>
+      <c r="F106" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
       <c r="B107" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="4"/>
+      <c r="F107" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
       <c r="B108" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="4"/>
+      <c r="F108" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
       <c r="B109" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="4"/>
+      <c r="F109" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
       <c r="B110" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="5" t="s">
         <v>232</v>
       </c>
       <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="4"/>
+      <c r="F110" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
       <c r="B111" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A112" s="4"/>
+      <c r="F111" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
       <c r="B112" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="4"/>
+      <c r="F112" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
       <c r="B113" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="4"/>
+      <c r="F113" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
       <c r="B114" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="4"/>
+      <c r="F114" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
       <c r="B115" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="5" t="s">
         <v>239</v>
       </c>
       <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="4"/>
+      <c r="F115" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
       <c r="B116" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="4"/>
+      <c r="F116" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
       <c r="B117" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="4"/>
+      <c r="F117" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
       <c r="B118" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="5" t="s">
         <v>248</v>
       </c>
       <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="4"/>
+      <c r="F118" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
       <c r="B119" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="5" t="s">
         <v>251</v>
       </c>
       <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="4"/>
+      <c r="F119" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
       <c r="B120" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="5"/>
+      <c r="F120" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
       <c r="B121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+      <c r="F121" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>256</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A123" s="4"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
       <c r="B123" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A124" s="4"/>
+      <c r="F123" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
       <c r="B124" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="4"/>
+      <c r="F124" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
       <c r="B125" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="5" t="s">
         <v>264</v>
       </c>
       <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="4"/>
+      <c r="F125" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
       <c r="B126" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="5" t="s">
         <v>267</v>
       </c>
       <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="4"/>
+      <c r="F126" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
       <c r="B127" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="4"/>
+      <c r="F127" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
       <c r="B128" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="4"/>
+      <c r="F128" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
       <c r="B129" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="4"/>
+      <c r="F129" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
       <c r="B130" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="4"/>
+      <c r="F130" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
       <c r="B131" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A132" s="4"/>
+      <c r="F131" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
       <c r="B132" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="5" t="s">
         <v>277</v>
       </c>
       <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="4"/>
+      <c r="F132" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
       <c r="B133" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="5" t="s">
         <v>277</v>
       </c>
       <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="4"/>
+      <c r="F133" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
       <c r="B134" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="5" t="s">
         <v>277</v>
       </c>
       <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="4"/>
+      <c r="F134" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
       <c r="B135" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="4"/>
+      <c r="F135" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
       <c r="B136" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="5" t="s">
         <v>285</v>
       </c>
       <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="4"/>
+      <c r="F136" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
       <c r="B137" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="5" t="s">
         <v>288</v>
       </c>
       <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="4"/>
+      <c r="F137" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="10"/>
       <c r="B138" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="4"/>
+      <c r="F138" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
       <c r="B139" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="5" t="s">
         <v>294</v>
       </c>
       <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="4"/>
+      <c r="F139" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
       <c r="B140" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="5" t="s">
         <v>297</v>
       </c>
       <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="5"/>
+      <c r="F140" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
       <c r="B141" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="5" t="s">
         <v>300</v>
       </c>
       <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="3" t="s">
+      <c r="F141" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>301</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="4"/>
+      <c r="F142" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
       <c r="B143" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="5" t="s">
         <v>305</v>
       </c>
       <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A144" s="4"/>
+      <c r="F143" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
       <c r="B144" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="4"/>
+      <c r="F144" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
       <c r="B145" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="4"/>
+      <c r="F145" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="10"/>
       <c r="B146" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="4"/>
+      <c r="F146" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
       <c r="B147" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="5" t="s">
         <v>311</v>
       </c>
       <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="4"/>
+      <c r="F147" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="10"/>
       <c r="B148" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="4"/>
+      <c r="F148" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
       <c r="B149" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="4"/>
+      <c r="F149" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
       <c r="B150" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="4"/>
+      <c r="F150" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
       <c r="B151" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="4"/>
+      <c r="F151" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
       <c r="B152" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="5" t="s">
         <v>248</v>
       </c>
       <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="4"/>
+      <c r="F152" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
       <c r="B153" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="4"/>
+      <c r="F153" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
       <c r="B154" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="4"/>
+      <c r="F154" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
       <c r="B155" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="5" t="s">
         <v>321</v>
       </c>
       <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A156" s="4"/>
+      <c r="F155" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
       <c r="B156" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A157" s="4"/>
+      <c r="F156" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
       <c r="B157" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A158" s="4"/>
+      <c r="F157" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
       <c r="B158" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A159" s="4"/>
+      <c r="F158" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
       <c r="B159" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="4"/>
+      <c r="F159" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
       <c r="B160" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="5" t="s">
         <v>330</v>
       </c>
       <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="5"/>
+      <c r="F160" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
       <c r="B161" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="5" t="s">
         <v>333</v>
       </c>
       <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
+      <c r="F161" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="5" t="s">
         <v>337</v>
       </c>
       <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="4"/>
+      <c r="F162" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
       <c r="B163" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" s="4"/>
+      <c r="F163" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
       <c r="B164" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A165" s="4"/>
+      <c r="F164" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
       <c r="B165" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="4"/>
+      <c r="F165" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
       <c r="B166" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="5" t="s">
         <v>343</v>
       </c>
       <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A167" s="4"/>
+      <c r="F166" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
       <c r="B167" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="5" t="s">
         <v>346</v>
       </c>
       <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="4"/>
+      <c r="F167" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
       <c r="B168" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A169" s="4"/>
+      <c r="F168" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
       <c r="B169" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="5" t="s">
         <v>350</v>
       </c>
       <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="4"/>
+      <c r="F169" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
       <c r="B170" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="5" t="s">
         <v>353</v>
       </c>
       <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="4"/>
+      <c r="F170" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
       <c r="B171" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="4"/>
+      <c r="F171" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
       <c r="B172" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="5" t="s">
         <v>357</v>
       </c>
       <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A173" s="4"/>
+      <c r="F172" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
       <c r="B173" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A174" s="4"/>
+      <c r="F173" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
       <c r="B174" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="4"/>
+      <c r="F174" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
       <c r="B175" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="5" t="s">
         <v>362</v>
       </c>
       <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="5"/>
+      <c r="F175" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
       <c r="B176" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="5" t="s">
         <v>365</v>
       </c>
       <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="s">
+      <c r="F176" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
         <v>366</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="4"/>
+      <c r="F177" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
       <c r="B178" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="4"/>
+      <c r="F178" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
       <c r="B179" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A180" s="4"/>
+      <c r="F179" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
       <c r="B180" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D180" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="4"/>
+      <c r="F180" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
       <c r="B181" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="4"/>
+      <c r="F181" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
       <c r="B182" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D182" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="4"/>
+      <c r="F182" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
       <c r="B183" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="4"/>
+      <c r="F183" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
       <c r="B184" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A185" s="4"/>
+      <c r="F184" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
       <c r="B185" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="5" t="s">
         <v>377</v>
       </c>
       <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="4"/>
+      <c r="F185" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
       <c r="B186" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D186" s="8" t="s">
+      <c r="D186" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="4"/>
+      <c r="F186" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
       <c r="B187" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="4"/>
+      <c r="F187" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
       <c r="B188" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="4"/>
+      <c r="F188" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
       <c r="B189" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D189" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="4"/>
+      <c r="F189" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
       <c r="B190" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D190" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="5"/>
+      <c r="F190" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="11"/>
       <c r="B191" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="D191" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="3" t="s">
+      <c r="F191" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
         <v>384</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="4"/>
+      <c r="F192" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
       <c r="B193" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="4"/>
+      <c r="F193" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="10"/>
       <c r="B194" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="4"/>
+      <c r="F194" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
       <c r="B195" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A196" s="4"/>
+      <c r="F195" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
       <c r="B196" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D196" s="8" t="s">
+      <c r="D196" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A197" s="4"/>
+      <c r="F196" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
       <c r="B197" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="D197" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A198" s="4"/>
+      <c r="F197" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A198" s="10"/>
       <c r="B198" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="4"/>
+      <c r="F198" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="10"/>
       <c r="B199" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="5" t="s">
         <v>394</v>
       </c>
       <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" s="4"/>
+      <c r="F199" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A200" s="10"/>
       <c r="B200" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A201" s="4"/>
+      <c r="F200" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
       <c r="B201" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A202" s="4"/>
+      <c r="F201" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
       <c r="B202" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D202" s="8" t="s">
+      <c r="D202" s="5" t="s">
         <v>399</v>
       </c>
       <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="4"/>
+      <c r="F202" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A203" s="10"/>
       <c r="B203" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D203" s="8" t="s">
+      <c r="D203" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A204" s="4"/>
+      <c r="F203" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
       <c r="B204" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D204" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A205" s="4"/>
+      <c r="F204" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="10"/>
       <c r="B205" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D205" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A206" s="4"/>
+      <c r="F205" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206" s="10"/>
       <c r="B206" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="D206" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" s="4"/>
+      <c r="F206" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="10"/>
       <c r="B207" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A208" s="4"/>
+      <c r="F207" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="10"/>
       <c r="B208" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D208" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A209" s="4"/>
+      <c r="F208" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="10"/>
       <c r="B209" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D209" s="5" t="s">
         <v>410</v>
       </c>
       <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A210" s="4"/>
+      <c r="F209" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
       <c r="B210" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D210" s="8" t="s">
+      <c r="D210" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A211" s="5"/>
+      <c r="F210" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A211" s="11"/>
       <c r="B211" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D211" s="8" t="s">
+      <c r="D211" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="3" t="s">
+      <c r="F211" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
         <v>415</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="5" t="s">
         <v>418</v>
       </c>
       <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="4"/>
+      <c r="F212" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213" s="10"/>
       <c r="B213" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D213" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A214" s="4"/>
+      <c r="F213" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A214" s="10"/>
       <c r="B214" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D214" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A215" s="4"/>
+      <c r="F214" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A215" s="10"/>
       <c r="B215" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D215" s="8" t="s">
+      <c r="D215" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="4"/>
+      <c r="F215" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A216" s="10"/>
       <c r="B216" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D216" s="8" t="s">
+      <c r="D216" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="4"/>
+      <c r="F216" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
       <c r="B217" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="4"/>
+      <c r="F217" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A218" s="10"/>
       <c r="B218" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A219" s="4"/>
+      <c r="F218" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="10"/>
       <c r="B219" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="5" t="s">
         <v>248</v>
       </c>
       <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="4"/>
+      <c r="F219" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A220" s="10"/>
       <c r="B220" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D220" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="4"/>
+      <c r="F220" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221" s="10"/>
       <c r="B221" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="4"/>
+      <c r="F221" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A222" s="10"/>
       <c r="B222" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D222" s="5" t="s">
         <v>432</v>
       </c>
       <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A223" s="4"/>
+      <c r="F222" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A223" s="10"/>
       <c r="B223" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="D223" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A224" s="4"/>
+      <c r="F223" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="10"/>
       <c r="B224" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A225" s="4"/>
+      <c r="F224" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="10"/>
       <c r="B225" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D225" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="4"/>
+      <c r="F225" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="10"/>
       <c r="B226" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D226" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A227" s="4"/>
+      <c r="F226" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="10"/>
       <c r="B227" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C227" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D227" s="8" t="s">
+      <c r="D227" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A228" s="4"/>
+      <c r="F227" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A228" s="10"/>
       <c r="B228" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D228" s="8" t="s">
+      <c r="D228" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A229" s="4"/>
+      <c r="F228" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
       <c r="B229" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D229" s="8" t="s">
+      <c r="D229" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A230" s="4"/>
+      <c r="F229" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A230" s="10"/>
       <c r="B230" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D230" s="5" t="s">
         <v>442</v>
       </c>
       <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="5"/>
+      <c r="F230" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A231" s="11"/>
       <c r="B231" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D231" s="8" t="s">
+      <c r="D231" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E231" s="2"/>
+      <c r="F231" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G231" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G231" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A66"/>
+    <mergeCell ref="A67:A86"/>
     <mergeCell ref="A212:A231"/>
     <mergeCell ref="A102:A121"/>
     <mergeCell ref="A122:A141"/>
@@ -4836,13 +6949,2620 @@
     <mergeCell ref="A162:A176"/>
     <mergeCell ref="A177:A191"/>
     <mergeCell ref="A192:A211"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A47:A66"/>
-    <mergeCell ref="A67:A86"/>
-    <mergeCell ref="A87:A101"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CABEE5-F0D4-41EE-B8D7-F8C0ACD3CFF1}">
+  <dimension ref="A1:F147"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1536</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1536</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B16" s="13">
+        <v>160</v>
+      </c>
+      <c r="C16" s="13">
+        <v>160</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B20" s="13">
+        <v>3600</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3600</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="B29" s="13">
+        <v>9</v>
+      </c>
+      <c r="C29" s="13">
+        <v>9</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B30" s="13">
+        <v>9</v>
+      </c>
+      <c r="C30" s="13">
+        <v>9</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B31" s="13">
+        <v>12</v>
+      </c>
+      <c r="C31" s="13">
+        <v>12</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B32" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B33" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B34" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B52" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="B53" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="B54" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B55" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B56" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B57" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="B61" s="13">
+        <v>3600</v>
+      </c>
+      <c r="C61" s="13">
+        <v>3600</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="B62" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="B63" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B64" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B66" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B67" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="B68" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="B69" s="13">
+        <v>2</v>
+      </c>
+      <c r="C69" s="13">
+        <v>2</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="B70" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="B72" s="13">
+        <v>43200</v>
+      </c>
+      <c r="C72" s="13">
+        <v>43200</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="B77" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B79" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="B80" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="B81" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B83" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="B86" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="B89" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="B91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="B92" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B93" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="B94" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="C94" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="B95" s="13">
+        <v>12000000</v>
+      </c>
+      <c r="C95" s="13">
+        <v>12000000</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="B96" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="B100" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="B102" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B103" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="B109" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="B110" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="B111" s="13">
+        <v>0</v>
+      </c>
+      <c r="C111" s="13">
+        <v>0</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="B114" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="B116" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="B117" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="B118" s="13">
+        <v>86400</v>
+      </c>
+      <c r="C118" s="13">
+        <v>86400</v>
+      </c>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B119" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="B120" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="B121" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="B123" s="13">
+        <v>0</v>
+      </c>
+      <c r="C123" s="13">
+        <v>0</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B124" s="13">
+        <v>172800</v>
+      </c>
+      <c r="C124" s="13">
+        <v>172800</v>
+      </c>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B125" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C125" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="B126" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="B127" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="B138" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="B140" s="13">
+        <v>1970</v>
+      </c>
+      <c r="C140" s="13">
+        <v>1970</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B142" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="B144" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="B145" s="13">
+        <v>0</v>
+      </c>
+      <c r="C145" s="13">
+        <v>0</v>
+      </c>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="B146" s="13">
+        <v>0</v>
+      </c>
+      <c r="C146" s="13">
+        <v>0</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>